--- a/mf-intelligence/data/separated_files/sbi/SBI Quant Fund/SBI Quant Fund_Apr_2025.xlsx
+++ b/mf-intelligence/data/separated_files/sbi/SBI Quant Fund/SBI Quant Fund_Apr_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1612 +436,1191 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Name of the Instrument / Issuer</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name of the Instrument / Issuer</t>
+          <t>Rating / Industry^</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rating / Industry^</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Market value
 (Rs. in Lakhs)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>% to AUM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>YTM %</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>YTC % ##</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Notes &amp; Symbols</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HDFC Bank Ltd.</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100006</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HDFC Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>INE040A01034</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>1850101</v>
+      </c>
+      <c r="E2" t="n">
+        <v>35614.44</v>
+      </c>
       <c r="F2" t="n">
-        <v>1850101</v>
-      </c>
-      <c r="G2" t="n">
-        <v>35614.44</v>
-      </c>
-      <c r="H2" t="n">
         <v>9.630000000000001</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ITC Ltd.</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100019</t>
+          <t>INE154A01025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ITC Ltd.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>INE154A01025</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>6367560</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27113.07</v>
+      </c>
       <c r="F3" t="n">
-        <v>6367560</v>
-      </c>
-      <c r="G3" t="n">
-        <v>27113.07</v>
-      </c>
-      <c r="H3" t="n">
         <v>7.33</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki India Ltd.</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100106</t>
+          <t>INE585B01010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Maruti Suzuki India Ltd.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>INE585B01010</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>184903</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22663.56</v>
+      </c>
       <c r="F4" t="n">
-        <v>184903</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22663.56</v>
-      </c>
-      <c r="H4" t="n">
         <v>6.13</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bajaj Finance Ltd.</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>100125</t>
+          <t>INE296A01024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bajaj Finance Ltd.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>INE296A01024</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>258431</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22314.22</v>
+      </c>
       <c r="F5" t="n">
-        <v>258431</v>
-      </c>
-      <c r="G5" t="n">
-        <v>22314.22</v>
-      </c>
-      <c r="H5" t="n">
         <v>6.03</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Interglobe Aviation Ltd.</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100465</t>
+          <t>INE646L01027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Interglobe Aviation Ltd.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>INE646L01027</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Transport Services</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>385294</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20226.01</v>
+      </c>
       <c r="F6" t="n">
-        <v>385294</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20226.01</v>
-      </c>
-      <c r="H6" t="n">
         <v>5.47</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Eicher Motors Ltd.</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>100128</t>
+          <t>INE066A01021</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Eicher Motors Ltd.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>INE066A01021</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>355399</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19785.06</v>
+      </c>
       <c r="F7" t="n">
-        <v>355399</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19785.06</v>
-      </c>
-      <c r="H7" t="n">
         <v>5.35</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HDFC Asset Management Co. Ltd.</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100814</t>
+          <t>INE127D01025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HDFC Asset Management Co. Ltd.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>INE127D01025</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Capital Markets</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>434983</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19027.9</v>
+      </c>
       <c r="F8" t="n">
-        <v>434983</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19027.9</v>
-      </c>
-      <c r="H8" t="n">
         <v>5.14</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Shriram Finance Ltd.</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>100114</t>
+          <t>INE721A01047</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Shriram Finance Ltd.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>INE721A01047</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>3076729</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18820.35</v>
+      </c>
       <c r="F9" t="n">
-        <v>3076729</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18820.35</v>
-      </c>
-      <c r="H9" t="n">
         <v>5.09</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ICICI Bank Ltd.</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>100012</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ICICI Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>INE090A01021</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>1074238</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15329.38</v>
+      </c>
       <c r="F10" t="n">
-        <v>1074238</v>
-      </c>
-      <c r="G10" t="n">
-        <v>15329.38</v>
-      </c>
-      <c r="H10" t="n">
         <v>4.14</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sun Pharmaceutical Industries Ltd.</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>100008</t>
+          <t>INE044A01036</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>INE044A01036</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>700819</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12841.11</v>
+      </c>
       <c r="F11" t="n">
-        <v>700819</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12841.11</v>
-      </c>
-      <c r="H11" t="n">
         <v>3.47</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mazagon Dock Shipbuilders Ltd.</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>101184</t>
+          <t>INE249Z01020</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mazagon Dock Shipbuilders Ltd.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>INE249Z01020</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Industrial Manufacturing</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>345963</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10578.16</v>
+      </c>
       <c r="F12" t="n">
-        <v>345963</v>
-      </c>
-      <c r="G12" t="n">
-        <v>10578.16</v>
-      </c>
-      <c r="H12" t="n">
         <v>2.86</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Indus Towers Ltd.</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>100091</t>
+          <t>INE121J01017</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Indus Towers Ltd.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>INE121J01017</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>Telecom - Services</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>2576264</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10516.31</v>
+      </c>
       <c r="F13" t="n">
-        <v>2576264</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10516.31</v>
-      </c>
-      <c r="H13" t="n">
         <v>2.84</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Muthoot Finance Ltd.</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100231</t>
+          <t>INE414G01012</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Muthoot Finance Ltd.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INE414G01012</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>456116</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9897.26</v>
+      </c>
       <c r="F14" t="n">
-        <v>456116</v>
-      </c>
-      <c r="G14" t="n">
-        <v>9897.26</v>
-      </c>
-      <c r="H14" t="n">
         <v>2.68</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ashok Leyland Ltd.</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>100365</t>
+          <t>INE208A01029</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ashok Leyland Ltd.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INE208A01029</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>Agricultural, Commercial &amp; Construction Vehicles</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>4342359</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9783.77</v>
+      </c>
       <c r="F15" t="n">
-        <v>4342359</v>
-      </c>
-      <c r="G15" t="n">
-        <v>9783.77</v>
-      </c>
-      <c r="H15" t="n">
         <v>2.65</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Marico Ltd.</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>100105</t>
+          <t>INE196A01026</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Marico Ltd.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INE196A01026</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>1246235</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8853.879999999999</v>
+      </c>
       <c r="F16" t="n">
-        <v>1246235</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8853.879999999999</v>
-      </c>
-      <c r="H16" t="n">
         <v>2.39</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bharat Petroleum Corporation Ltd.</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100094</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bharat Petroleum Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INE029A01011</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>2742581</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8503.370000000001</v>
+      </c>
       <c r="F17" t="n">
-        <v>2742581</v>
-      </c>
-      <c r="G17" t="n">
-        <v>8503.370000000001</v>
-      </c>
-      <c r="H17" t="n">
         <v>2.3</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cholamandalam Investment &amp; Finance Co. Ltd.</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>100399</t>
+          <t>INE121A01024</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cholamandalam Investment &amp; Finance Co. Ltd.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INE121A01024</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>538399</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8033.99</v>
+      </c>
       <c r="F18" t="n">
-        <v>538399</v>
-      </c>
-      <c r="G18" t="n">
-        <v>8033.99</v>
-      </c>
-      <c r="H18" t="n">
         <v>2.17</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lupin Ltd.</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>100028</t>
+          <t>INE326A01037</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lupin Ltd.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INE326A01037</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>358349</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7509.56</v>
+      </c>
       <c r="F19" t="n">
-        <v>358349</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7509.56</v>
-      </c>
-      <c r="H19" t="n">
         <v>2.03</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AU Small Finance Bank Ltd.</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>100663</t>
+          <t>INE949L01017</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AU Small Finance Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INE949L01017</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>1059842</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7192.09</v>
+      </c>
       <c r="F20" t="n">
-        <v>1059842</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7192.09</v>
-      </c>
-      <c r="H20" t="n">
         <v>1.94</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>United Spirits Ltd.</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>100223</t>
+          <t>INE854D01024</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>United Spirits Ltd.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INE854D01024</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>Beverages</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>431572</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6749.35</v>
+      </c>
       <c r="F21" t="n">
-        <v>431572</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6749.35</v>
-      </c>
-      <c r="H21" t="n">
         <v>1.82</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cipla Ltd.</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>100153</t>
+          <t>INE059A01026</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cipla Ltd.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INE059A01026</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>412740</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6397.88</v>
+      </c>
       <c r="F22" t="n">
-        <v>412740</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6397.88</v>
-      </c>
-      <c r="H22" t="n">
         <v>1.73</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hindustan Petroleum Corporation Ltd.</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>100100</t>
+          <t>INE094A01015</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hindustan Petroleum Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INE094A01015</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>1503141</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5692.39</v>
+      </c>
       <c r="F23" t="n">
-        <v>1503141</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5692.39</v>
-      </c>
-      <c r="H23" t="n">
         <v>1.54</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Indian Bank</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>100033</t>
+          <t>INE562A01011</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Indian Bank</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INE562A01011</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>900652</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5095.89</v>
+      </c>
       <c r="F24" t="n">
-        <v>900652</v>
-      </c>
-      <c r="G24" t="n">
-        <v>5095.89</v>
-      </c>
-      <c r="H24" t="n">
         <v>1.38</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Petronet LNG Ltd.</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100164</t>
+          <t>INE347G01014</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Petronet LNG Ltd.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INE347G01014</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>1595789</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5006.79</v>
+      </c>
       <c r="F25" t="n">
-        <v>1595789</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5006.79</v>
-      </c>
-      <c r="H25" t="n">
         <v>1.35</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JSW Steel Ltd.</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>100193</t>
+          <t>INE019A01038</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>JSW Steel Ltd.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INE019A01038</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>Ferrous Metals</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>478247</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4924.99</v>
+      </c>
       <c r="F26" t="n">
-        <v>478247</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4924.99</v>
-      </c>
-      <c r="H26" t="n">
         <v>1.33</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hindalco Industries Ltd.</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>100180</t>
+          <t>INE038A01020</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Hindalco Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INE038A01020</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
           <t>Non - Ferrous Metals</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>677800</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4233.88</v>
+      </c>
       <c r="F27" t="n">
-        <v>677800</v>
-      </c>
-      <c r="G27" t="n">
-        <v>4233.88</v>
-      </c>
-      <c r="H27" t="n">
         <v>1.14</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Coromandel International Ltd.</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>100442</t>
+          <t>INE169A01031</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Coromandel International Ltd.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INE169A01031</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
           <t>Fertilizers &amp; Agrochemicals</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>165647</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3667.76</v>
+      </c>
       <c r="F28" t="n">
-        <v>165647</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3667.76</v>
-      </c>
-      <c r="H28" t="n">
         <v>0.99</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Power Grid Corporation of India Ltd.</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>100182</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Power Grid Corporation of India Ltd.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INE752E01010</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>1167455</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3589.34</v>
+      </c>
       <c r="F29" t="n">
-        <v>1167455</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3589.34</v>
-      </c>
-      <c r="H29" t="n">
         <v>0.97</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Abbott India Ltd.</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>100306</t>
+          <t>INE358A01014</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Abbott India Ltd.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>INE358A01014</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>11058</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3315.74</v>
+      </c>
       <c r="F30" t="n">
-        <v>11058</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3315.74</v>
-      </c>
-      <c r="H30" t="n">
         <v>0.9</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Shree Cement Ltd.</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>100140</t>
+          <t>INE070A01015</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Shree Cement Ltd.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>INE070A01015</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>8848</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2628.74</v>
+      </c>
       <c r="F31" t="n">
-        <v>8848</v>
-      </c>
-      <c r="G31" t="n">
-        <v>2628.74</v>
-      </c>
-      <c r="H31" t="n">
         <v>0.71</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LIC Housing Finance Ltd.</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>100042</t>
+          <t>INE115A01026</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LIC Housing Finance Ltd.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>INE115A01026</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>437398</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2628.54</v>
+      </c>
       <c r="F32" t="n">
-        <v>437398</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2628.54</v>
-      </c>
-      <c r="H32" t="n">
         <v>0.71</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Wipro Ltd.</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>100011</t>
+          <t>INE075A01022</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wipro Ltd.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>INE075A01022</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>1087368</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2625.99</v>
+      </c>
       <c r="F33" t="n">
-        <v>1087368</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2625.99</v>
-      </c>
-      <c r="H33" t="n">
         <v>0.71</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Reliance Industries Ltd.</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>100002</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>INE002A01018</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>184032</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2585.65</v>
+      </c>
       <c r="F34" t="n">
-        <v>184032</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2585.65</v>
-      </c>
-      <c r="H34" t="n">
         <v>0.7</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Page Industries Ltd.</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>100200</t>
+          <t>INE761H01022</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Page Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>INE761H01022</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
           <t>Textiles &amp; Apparels</t>
         </is>
       </c>
+      <c r="D35" t="n">
+        <v>5447</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2484.65</v>
+      </c>
       <c r="F35" t="n">
-        <v>5447</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2484.65</v>
-      </c>
-      <c r="H35" t="n">
         <v>0.67</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Pidilite Industries Ltd.</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>100027</t>
+          <t>INE318A01026</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pidilite Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>INE318A01026</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
+      <c r="D36" t="n">
+        <v>66704</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2023.73</v>
+      </c>
       <c r="F36" t="n">
-        <v>66704</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2023.73</v>
-      </c>
-      <c r="H36" t="n">
         <v>0.55</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Persistent Systems Ltd.</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>100026</t>
+          <t>INE262H01021</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Persistent Systems Ltd.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>INE262H01021</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
           <t>IT - Software</t>
         </is>
       </c>
+      <c r="D37" t="n">
+        <v>31855</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1695.16</v>
+      </c>
       <c r="F37" t="n">
-        <v>31855</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1695.16</v>
-      </c>
-      <c r="H37" t="n">
         <v>0.46</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Glaxosmithkline Pharmaceuticals Ltd.</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>100565</t>
+          <t>INE159A01016</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Glaxosmithkline Pharmaceuticals Ltd.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>INE159A01016</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
+      <c r="D38" t="n">
+        <v>56488</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1674.64</v>
+      </c>
       <c r="F38" t="n">
-        <v>56488</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1674.64</v>
-      </c>
-      <c r="H38" t="n">
         <v>0.45</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>General Insurance Corporation of India</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>100733</t>
+          <t>INE481Y01014</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>General Insurance Corporation of India</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>INE481Y01014</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
           <t>Insurance</t>
         </is>
       </c>
+      <c r="D39" t="n">
+        <v>203468</v>
+      </c>
+      <c r="E39" t="n">
+        <v>848.77</v>
+      </c>
       <c r="F39" t="n">
-        <v>203468</v>
-      </c>
-      <c r="G39" t="n">
-        <v>848.77</v>
-      </c>
-      <c r="H39" t="n">
         <v>0.23</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kotak Mahindra Bank Ltd.</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>100104</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>INE237A01028</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="D40" t="n">
         <v>10</v>
       </c>
-      <c r="G40" t="n">
+      <c r="E40" t="n">
         <v>0.22</v>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Bharat Electronics Ltd.</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>100089</t>
+          <t>INE263A01024</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bharat Electronics Ltd.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>INE263A01024</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="D41" t="n">
         <v>42</v>
       </c>
-      <c r="G41" t="n">
+      <c r="E41" t="n">
         <v>0.13</v>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Solar Industries India Ltd.</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>100260</t>
+          <t>INE343H01029</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Solar Industries India Ltd.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>INE343H01029</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="D42" t="n">
         <v>1</v>
       </c>
-      <c r="G42" t="n">
+      <c r="E42" t="n">
         <v>0.13</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>The Federal Bank Ltd.</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>100055</t>
+          <t>INE171A01029</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>The Federal Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>INE171A01029</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="D43" t="n">
         <v>35</v>
       </c>
-      <c r="G43" t="n">
+      <c r="E43" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Berger Paints India Ltd.</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>100196</t>
+          <t>INE463A01038</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Berger Paints India Ltd.</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>INE463A01038</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="D44" t="n">
         <v>12</v>
       </c>
-      <c r="G44" t="n">
+      <c r="E44" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Aurobindo Pharma Ltd.</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>100201</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Ltd.</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>INE406A01037</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="D45" t="n">
         <v>4</v>
       </c>
-      <c r="G45" t="n">
+      <c r="E45" t="n">
         <v>0.05</v>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>#</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
